--- a/data/trans_dic/P22_R4-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P22_R4-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02203353938391654</v>
+        <v>0.0224962633751114</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03468352289529184</v>
+        <v>0.03345995796678163</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01344466853314536</v>
+        <v>0.01377256681974556</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01898592097607802</v>
+        <v>0.0193121422876785</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03226700459277036</v>
+        <v>0.03319652725425934</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02581733604047767</v>
+        <v>0.02586925954098932</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01664883670105381</v>
+        <v>0.0167624555406699</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03623122926182742</v>
+        <v>0.03594382961553944</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03234381052386325</v>
+        <v>0.031545349158005</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.03252820097316244</v>
+        <v>0.03277376760671559</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01761197317051518</v>
+        <v>0.01713685914488791</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.03125869903532696</v>
+        <v>0.03148986118841762</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05749768997833809</v>
+        <v>0.05774531354492134</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0621859516743023</v>
+        <v>0.06477587068248943</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03204972470072914</v>
+        <v>0.03276023722035471</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05601900750228409</v>
+        <v>0.05663880909006105</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06028143201060277</v>
+        <v>0.06112351126127922</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.0491874314042214</v>
+        <v>0.04964869398569653</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.0343350900126874</v>
+        <v>0.03582687319127082</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.07052349958441637</v>
+        <v>0.06943349288499129</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0535320439671912</v>
+        <v>0.05234541309985155</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.05061061921793576</v>
+        <v>0.05092563551585857</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03008799131409276</v>
+        <v>0.02994903375503628</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.0567152018365398</v>
+        <v>0.05535331051553296</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05245420265035171</v>
+        <v>0.05096033068260778</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04799676096954233</v>
+        <v>0.04799922215209682</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04560052811821114</v>
+        <v>0.04536701792754584</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03929812862646675</v>
+        <v>0.03925990820466893</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0566013241894693</v>
+        <v>0.05601491706353742</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05348797276831536</v>
+        <v>0.05381184710930667</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.05609148628895728</v>
+        <v>0.05635345307850585</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05896018441112732</v>
+        <v>0.0586987753174709</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05835993968765187</v>
+        <v>0.05702798206154335</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.05523583605948308</v>
+        <v>0.05377502092871086</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.05586009727270658</v>
+        <v>0.05520655326680555</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05327041869783743</v>
+        <v>0.05280617244913294</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08258595056545813</v>
+        <v>0.08112760793478105</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07925755458915706</v>
+        <v>0.0795066738336012</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07713056390518487</v>
+        <v>0.07733911590698482</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.07000681511875538</v>
+        <v>0.0716587438085686</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.08780809360884473</v>
+        <v>0.08691918808104603</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.08621522706543289</v>
+        <v>0.08485010081772251</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.08848246513979892</v>
+        <v>0.08916042672081463</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.08680277629016135</v>
+        <v>0.08734697003893206</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.08010399268600828</v>
+        <v>0.08068616183066109</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.07852381567257873</v>
+        <v>0.07746456640754039</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.07800806520411582</v>
+        <v>0.07898050207586627</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.07346760462252101</v>
+        <v>0.07329066058484586</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1104549808966669</v>
+        <v>0.1080052728905608</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1019365205444346</v>
+        <v>0.09986286191620745</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1022598108247468</v>
+        <v>0.1042618637476437</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1129896602557237</v>
+        <v>0.1131054223236512</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.09209224500556835</v>
+        <v>0.09050893143905067</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07546283646248995</v>
+        <v>0.07559627432300414</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.08059812864714376</v>
+        <v>0.08046535412938587</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1230690020735082</v>
+        <v>0.1231019097550982</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1061340008832266</v>
+        <v>0.1066844227869857</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.09479867100102476</v>
+        <v>0.09380235659953688</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.09835820008724983</v>
+        <v>0.1006029398115023</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.123766185191728</v>
+        <v>0.1237668138305586</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1506817751230793</v>
+        <v>0.1483315900191503</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1475736703772964</v>
+        <v>0.146895121302217</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1501311913518696</v>
+        <v>0.1549943052197593</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1595873828227618</v>
+        <v>0.1596000925476897</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1308167954241699</v>
+        <v>0.131890150053329</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1148515899886864</v>
+        <v>0.1154345111014506</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1252548057940815</v>
+        <v>0.1247013786412245</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1569826867373827</v>
+        <v>0.1596527862628364</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1338619367706883</v>
+        <v>0.1352271846166992</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1256370405443442</v>
+        <v>0.1253885962602354</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1302211079261958</v>
+        <v>0.1301109314771691</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1530917146391307</v>
+        <v>0.155426452556374</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.1884897686695419</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2698695334214575</v>
+        <v>0.2698695334214574</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.2700464418295365</v>
@@ -1093,7 +1093,7 @@
         <v>0.1875302242384134</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.2553212869429899</v>
+        <v>0.25532128694299</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.2551501878668631</v>
@@ -1105,7 +1105,7 @@
         <v>0.188018183675253</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2628525818731222</v>
+        <v>0.2628525818731221</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2043287189261873</v>
+        <v>0.2043537277080955</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1493006098603928</v>
+        <v>0.1565599292259863</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1534405603689533</v>
+        <v>0.1535522511656394</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2387340708754284</v>
+        <v>0.2411830740914641</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2229891080006118</v>
+        <v>0.2254846755884183</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1281156894253684</v>
+        <v>0.1255900113056906</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1520177668417609</v>
+        <v>0.1538822006041881</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2308898011925541</v>
+        <v>0.230276012797139</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2248291813090153</v>
+        <v>0.2258288787437951</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1508050877768726</v>
+        <v>0.1477276536322017</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1655275038047458</v>
+        <v>0.1644599864698506</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2413873831298342</v>
+        <v>0.2432649681572927</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2860856629203371</v>
+        <v>0.2860793715489643</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2298405617084709</v>
+        <v>0.2286903567654691</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2296512202572058</v>
+        <v>0.2220836682100231</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3024856256283119</v>
+        <v>0.3026135684742782</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3189928474864175</v>
+        <v>0.3256814429644281</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2035727407959392</v>
+        <v>0.2043803829070603</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2274925501051448</v>
+        <v>0.2297113039113441</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2848944138852127</v>
+        <v>0.2854813864999698</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2857623186648281</v>
+        <v>0.2913623737443866</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2029529699049449</v>
+        <v>0.2018762927902418</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2158807840507146</v>
+        <v>0.2191154147193855</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2847576795427104</v>
+        <v>0.2836797748218646</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.09588267196420769</v>
+        <v>0.09580959050350708</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.07957365330119347</v>
+        <v>0.0812427542924251</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.07335546408703236</v>
+        <v>0.07310795129502184</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1229554586056937</v>
+        <v>0.1233761336952294</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.08511811501757137</v>
+        <v>0.08544489598783894</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.06687033990656775</v>
+        <v>0.06785541740627109</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.06809875124284649</v>
+        <v>0.06857058855919128</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.123067455040112</v>
+        <v>0.1242282868383227</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.09397030490865547</v>
+        <v>0.09377664225934007</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.07738247833619455</v>
+        <v>0.07723257837156827</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.07357944492558156</v>
+        <v>0.07361026634605519</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1256999888574549</v>
+        <v>0.126056882700305</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1176753640230968</v>
+        <v>0.117374456734468</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1022729025974638</v>
+        <v>0.1021969109214045</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0930694683884272</v>
+        <v>0.0933395175954746</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1476264365910285</v>
+        <v>0.1496725585290727</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1052330626790651</v>
+        <v>0.10613890592217</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.08639848245982931</v>
+        <v>0.08728676439936107</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.08740182695014932</v>
+        <v>0.08704905174491241</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1430459595855089</v>
+        <v>0.1429543414688695</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1081114596723084</v>
+        <v>0.1087558652526246</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.09243221389742365</v>
+        <v>0.09076797649254262</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.0873273281463231</v>
+        <v>0.08751834084469343</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1421647000207346</v>
+        <v>0.1416797857476386</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>12853</v>
+        <v>13123</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>36207</v>
+        <v>34930</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>15153</v>
+        <v>15523</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>9469</v>
+        <v>9632</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>29761</v>
+        <v>30618</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>28914</v>
+        <v>28972</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>20895</v>
+        <v>21037</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>22593</v>
+        <v>22414</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>48699</v>
+        <v>47496</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>70387</v>
+        <v>70918</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>41953</v>
+        <v>40822</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>35082</v>
+        <v>35342</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>33540</v>
+        <v>33684</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>64918</v>
+        <v>67622</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>36122</v>
+        <v>36923</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>27939</v>
+        <v>28248</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>55600</v>
+        <v>56376</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>55086</v>
+        <v>55603</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>43091</v>
+        <v>44964</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>43977</v>
+        <v>43297</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>80601</v>
+        <v>78814</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>109514</v>
+        <v>110196</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>71672</v>
+        <v>71341</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>63653</v>
+        <v>62124</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>56481</v>
+        <v>54872</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>46849</v>
+        <v>46852</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>41261</v>
+        <v>41050</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>37732</v>
+        <v>37695</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>59791</v>
+        <v>59172</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>58530</v>
+        <v>58884</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>56383</v>
+        <v>56647</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>65791</v>
+        <v>65499</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>124489</v>
+        <v>121647</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>114358</v>
+        <v>111333</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>106696</v>
+        <v>105447</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>110589</v>
+        <v>109625</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>88925</v>
+        <v>87355</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>77363</v>
+        <v>77606</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>69791</v>
+        <v>69980</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>67216</v>
+        <v>68802</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>92757</v>
+        <v>91818</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>94342</v>
+        <v>92848</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>88943</v>
+        <v>89624</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>96859</v>
+        <v>97466</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>170871</v>
+        <v>172113</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>162572</v>
+        <v>160379</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>148999</v>
+        <v>150857</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>152518</v>
+        <v>152150</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>123560</v>
+        <v>120819</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>90226</v>
+        <v>88390</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>84237</v>
+        <v>85887</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>118241</v>
+        <v>118362</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>91456</v>
+        <v>89884</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>66090</v>
+        <v>66207</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>62146</v>
+        <v>62044</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>128932</v>
+        <v>128967</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>224127</v>
+        <v>225289</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>166932</v>
+        <v>165178</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>156863</v>
+        <v>160443</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>259181</v>
+        <v>259183</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>168559</v>
+        <v>165930</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>130620</v>
+        <v>130019</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>123672</v>
+        <v>127678</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>167005</v>
+        <v>167018</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>129913</v>
+        <v>130979</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>100587</v>
+        <v>101097</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>96579</v>
+        <v>96152</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>164462</v>
+        <v>167259</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>282681</v>
+        <v>285564</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>221236</v>
+        <v>220798</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>207679</v>
+        <v>207503</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>320593</v>
+        <v>325482</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>91068</v>
+        <v>91080</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>75102</v>
+        <v>78753</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>77748</v>
+        <v>77805</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>232988</v>
+        <v>235378</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>76075</v>
+        <v>76926</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>58003</v>
+        <v>56859</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>74443</v>
+        <v>75356</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>209943</v>
+        <v>209385</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>176908</v>
+        <v>177694</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>144133</v>
+        <v>141192</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>164931</v>
+        <v>163868</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>455065</v>
+        <v>458605</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>127507</v>
+        <v>127504</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>115615</v>
+        <v>115037</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>116365</v>
+        <v>112530</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>295204</v>
+        <v>295329</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>108827</v>
+        <v>111109</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>92165</v>
+        <v>92530</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>111403</v>
+        <v>112489</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>259049</v>
+        <v>259582</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>224853</v>
+        <v>229260</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>193974</v>
+        <v>192945</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>215103</v>
+        <v>218326</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>536827</v>
+        <v>534795</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>309166</v>
+        <v>308930</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>271200</v>
+        <v>276889</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>246648</v>
+        <v>245816</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>428043</v>
+        <v>429507</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>281991</v>
+        <v>283074</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>236903</v>
+        <v>240393</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>239775</v>
+        <v>241436</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>454900</v>
+        <v>459191</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>614318</v>
+        <v>613052</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>537877</v>
+        <v>536835</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>506474</v>
+        <v>506686</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>902229</v>
+        <v>904790</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>379435</v>
+        <v>378465</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>348563</v>
+        <v>348304</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>312934</v>
+        <v>313842</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>513930</v>
+        <v>521053</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>348631</v>
+        <v>351632</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>306086</v>
+        <v>309233</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>307741</v>
+        <v>306499</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>528748</v>
+        <v>528409</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>706764</v>
+        <v>710976</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>642486</v>
+        <v>630918</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>601105</v>
+        <v>602420</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1020406</v>
+        <v>1016926</v>
       </c>
     </row>
     <row r="24">
